--- a/excel/format.xlsx
+++ b/excel/format.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tugas_akhir_prediksi\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680"/>
   </bookViews>
@@ -16,18 +21,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>NIS</t>
+    <t>nama_produk</t>
   </si>
   <si>
-    <t>NAMA</t>
-  </si>
-  <si>
-    <t>JENIS KELAMIN</t>
-  </si>
-  <si>
-    <t>ALAMAT</t>
+    <t>kode_barang</t>
   </si>
 </sst>
 </file>
@@ -75,6 +74,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -122,7 +124,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -157,7 +159,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -366,32 +368,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="63.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
